--- a/biology/Médecine/René_Leriche/René_Leriche.xlsx
+++ b/biology/Médecine/René_Leriche/René_Leriche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Leriche</t>
+          <t>René_Leriche</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">René Leriche, né le 12 octobre 1879 à Roanne (Loire) et mort le 28 décembre 1955 à Cassis (Bouches-du-Rhône), est un chirurgien et physiologiste français.
 Spécialiste de la douleur, de la chirurgie vasculaire et du tronc sympathique. Sensibilisé par les nombreux mutilés de la Première Guerre mondiale, il est l'un des premiers à s'intéresser à la douleur et à mettre en pratique une chirurgie douce, économe en sang et aussi peu traumatisante que possible. Deux syndromes portent son nom, l'algoneurodystrophie et l'oblitération aorto-iliaque. Il a formé de nombreux élèves dont notamment Michael E. DeBakey, João Cid dos Santos, René Fontaine et Jean Kunlin.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Leriche</t>
+          <t>René_Leriche</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,25 +526,16 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Famille et études
-René Leriche[1],[2],[3],[4] naît dans une famille de sept enfants au 1 rue Cadore à Roanne, il est le troisième enfant d'Ernest Leriche (1843-1915)[5], avoué près le tribunal civil de Roanne et d'Anne Chamussy (1854-1923), issue d'une famille roannaise d'industriels du textile. Il est le frère de Marc Leriche (1885-1918), sculpteur et de Paul Leriche (1876-1927), peintre. 
-René Leriche est issu d'une famille de médecins lyonnais[1] : son grand-père paternel, Alexandre-Napoléon Leriche (1808-1874)[6] fut chirurgien civil à Lyon, son grand-oncle maternel, Lucien Girin[7],[8] était médecin à l'Hôtel-Dieu de Lyon et son oncle paternel était chirurgien.
-Il fit ses études primaires chez les Frères de la Doctrine chrétienne dans une classe réservée pour les enfants de la bourgeoisie de Roanne puis ses études secondaires au collège de Saint-Chamond tenu par les pères maristes. En 1893, il obtient son baccalauréat en rhétorique. Il se pose alors la question de suivre les pas de son grand-père, de son grand-oncle et de son oncle dans la voie de la chirurgie, ou encore d'entrer à l'École militaire de Saint-Cyr pour embrasser une carrière militaire. Au mois de mars 1894, il change d’avis et écrit à ses parents qu’il veut devenir chirurgien. Il achève son baccalauréat de philosophie pour entrer à la Faculté des sciences de Lyon en novembre, et préparer le PCN (Physique, Chimie, Sciences Naturelles)[9]. De 1899 à 1900, René Leriche fait son service militaire au 98e régiment d'infanterie. Il est interne en 1902, puis docteur en médecine en soutenant une thèse consacrée à la technique de résection chirurgicale dans le traitement du cancer de l'estomac en 1906, sous la direction d'Antonin Poncet. À Lyon, il se lie d'amitié pour Alexis Carrel qu'il retrouvera, plus tard, à New York.
-René Leriche épousa Louise Héliot Calenborn, née en 1884 et décédée le 26 septembre 1910 dans le 2e arrondissement de Lyon. Son épouse est issue d’une famille catholique germanique. Elle-même médecin, elle sera sa plus proche collaboratrice[10]. De ce mariage naîtra une fille : Jacqueline Leriche (née en 1917)[11],[12], comédienne, mariée en premières noces le 24 septembre 1934 dans le 7e arrondissement de Lyon avec Pierre Étienne-Martin (1905-1961)[13], professeur agrégé de médecine, dont deux enfants ; puis mariée en secondes noces avec Henry Dauberville (1907-1988), marchand de tableaux, dont deux enfants Béatrice (1948-) et Guy-Patrice Dauberville (1949-). 
-Première Guerre mondiale
-Au début de la guerre, il est affecté dans une ambulance chirurgicale automobile dans les Vosges. Après un court passage à Creil dans un hôpital de triage et de régulation, il est nommé à l'hôpital du Panthéon. Puis, il passe à l'hôpital russe installé dans l'hôtel Carlton de Menton[14]. En avril 1917, souhaitant depuis longtemps retourner au front, René Leriche rejoint Robert Proust et son équipe de l'Auto-chir (ACA no 17). René Leriche fut sollicité par l'histologiste et radiobiologiste lyonnais Claudius Regaud pour entrer dans la formation qu'il préparait pour servir d'École de médecine et de chirurgie de guerre dans l'HOE[15] de Bouleuse, près de Reims. Cette école devint un centre réputé d'instruction et de perfectionnement pour tous les médecins et les chirurgiens qui y passaient au point qu'il fut décidé d'y admettre en formation active les Américains fraîchement arrivés. René Leriche y retrouve plusieurs grands noms de la médecine : le brillant spécialiste de la chirurgie thoracique Jean-Louis Roux-Berger (très en avance sur ce qui se faisait ailleurs), Lemaître qui restera le créateur de la suture primitive des plaies, le neurologue Georges Guillain, le radiologiste lyonnais Thomas Nogier et le pathologiste Pierre Masson. Mais, il a surtout pour adjoint Paul Santy et Convert pour son service des fractures et des lésions articulaires. Un jeune médecin fraîchement arrivé s'empresse de le rencontrer ; il s'agit de Georges Duhamel. À Épernay, se trouve l'Auto-chir no 39 de Paul Lecène avec Albert Policard. C'est avec ce dernier et l'aide de Paul Santy que René Leriche entreprendra dans l'HOE des travaux très poussés de recherche sur l'ostéogenèse ; il s'intéresse en particulier à la réparation des fractures avec des expériences menées sur des lapins, et poursuit déjà de savantes réflexions sur le rôle de la vasomotricité dans le site du traumatisme. Cela exigeait de nombreuses coupes histologiques et autant de clichés radiologiques, voire photographiques, mais l'environnement et l'organisation de ce très gros hôpital de campagne de 3 000 lits le permettaient. Il devient chirurgien-major de 1re classe le 28 décembre 1917[16]. Lors de la guerre de 1914-1918, l’idée de René Leriche est de différencier le linge blanc traditionnel dans lequel sont amenés les blessés, du linge des salles d’opérations chirurgicales aseptiques. Il choisit le bleu et fait peindre les salles chirurgicales en bleu. Tout le linge des salles d’opérations est également de couleur bleue : linge opératoire, casaques, calots, masques. Cette couleur sera adoptée dans le monde entier et, pour la première fois, cette convention permet de limiter au mieux les contaminations infectieuses.
-Entre-deux-guerres
- Il devient chirurgien des hôpitaux de Lyon en 1919. Un séjour aux États-Unis lui permet de rencontrer notamment Simon Flexner (qui prône la chirurgie « en douceur ») de la Fondation Rockefeller, puis William Halsted à Baltimore mais également de nombreux chirurgiens qui auront une grande influence sur lui. En 1924, il est titulaire d'une chaire à l'université de Strasbourg, répondant à l'appel du doyen Georges Weiss après la mort de Louis Sencert. Il introduit l'importante notion de chirurgie non agressive. En 1925, lors de sa leçon inaugurale à la chaire de clinique chirurgicale de l’université de Strasbourg, il affirme que la chirurgie ne doit plus se limiter à la correction ou à l’ablation des lésions anatomiques mais qu’elle doit s’attaquer au traitement des troubles fonctionnels[17].
-Il soigne et ampute le maréchal Joffre en fin de vie[18].
-En 1936, il succède à Charles Nicolle au Collège de France à Paris : il y occupera la chaire de Médecine expérimentale de 1937 à 1950. Cela lui permet de continuer ses recherches en y créant un laboratoire de chirurgie expérimentale et de conceptualiser ses théories sur la physiologie et la pathologie. Dans le sillage de Claude Bernard, René Leriche déclare que « la maladie apparaît surtout comme une perversion fonctionnelle ».
-Seconde Guerre mondiale
-De retour à Lyon après l'armistice du 22 juin 1940, il décline le poste de ministre de la Santé qui lui aurait été proposé par le maréchal Pétain[19]. Il accepte néanmoins la présidence de l'Ordre national des médecins créé en octobre 1940 par le régime de Vichy[20],[21],[22]. Cet organisme renforcera l'emprise de l'État sur l'organisation de la médecine, appuiera le numerus clausus dans les études médicales et appliquera l'interdiction professionnelle des médecins juifs. Le Conseil de l’Ordre des médecins a joué en effet, sous la direction de René Leriche, un rôle important dans l’exclusion des médecins Juifs en participant à leur recensement, à leur dénonciation et surtout au processus de spoliation des cabinets « vacants ». Le professeur René Leriche restera jusqu'en 1943 le président de l'Ordre national des médecins. Pendant la Seconde Guerre mondiale, il fut aussi membre du Conseil national du régime de Vichy. Il dira plusieurs années après la guerre qu'il serait parti en désaccord avec les directives de l'État et justifie son attitude en affirmant, en reprenant ainsi les mêmes arguments des défenseurs du gouvernement de Vichy, que le Conseil de l’Ordre des médecins a servi de bouclier face à l'occupant nazi. Comme beaucoup de personnes engagées dans la collaboration avec Vichy, il ne sera que peu inquiété et il minimisera son engagement[23]. 
-Après-guerre
- À la Libération, il est évincé des circuits officiels. Il est cependant élu membre de l'Académie des sciences le 4 juin 1945 et de l'Académie nationale de médecine en 1945. L'Ordre national des médecins est alors réformé[24].
-Il fut aussi élu membre de l'Académie nationale de chirurgie en 1945 et président de celle-ci de 1952 à 1953[25].
-René Leriche corrigeait les épreuves de son autobiographie peu avant sa mort. Ce livre fut publié en 1956 sous le titre (choisi par l'éditeur) Souvenirs de ma vie morte.
-René Leriche est inhumé au cimetière de Sainte-Foy-lès-Lyon[26].
-Le 30 juin 2022, le bâtiment René Leriche de l’ancien hôpital Broussais est débaptisé et renommé bâtiment Ady Steg[27] en l'honneur du chirurgien et jeune résistant.
+          <t>Famille et études</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">René Leriche naît dans une famille de sept enfants au 1 rue Cadore à Roanne, il est le troisième enfant d'Ernest Leriche (1843-1915), avoué près le tribunal civil de Roanne et d'Anne Chamussy (1854-1923), issue d'une famille roannaise d'industriels du textile. Il est le frère de Marc Leriche (1885-1918), sculpteur et de Paul Leriche (1876-1927), peintre. 
+René Leriche est issu d'une famille de médecins lyonnais : son grand-père paternel, Alexandre-Napoléon Leriche (1808-1874) fut chirurgien civil à Lyon, son grand-oncle maternel, Lucien Girin, était médecin à l'Hôtel-Dieu de Lyon et son oncle paternel était chirurgien.
+Il fit ses études primaires chez les Frères de la Doctrine chrétienne dans une classe réservée pour les enfants de la bourgeoisie de Roanne puis ses études secondaires au collège de Saint-Chamond tenu par les pères maristes. En 1893, il obtient son baccalauréat en rhétorique. Il se pose alors la question de suivre les pas de son grand-père, de son grand-oncle et de son oncle dans la voie de la chirurgie, ou encore d'entrer à l'École militaire de Saint-Cyr pour embrasser une carrière militaire. Au mois de mars 1894, il change d’avis et écrit à ses parents qu’il veut devenir chirurgien. Il achève son baccalauréat de philosophie pour entrer à la Faculté des sciences de Lyon en novembre, et préparer le PCN (Physique, Chimie, Sciences Naturelles). De 1899 à 1900, René Leriche fait son service militaire au 98e régiment d'infanterie. Il est interne en 1902, puis docteur en médecine en soutenant une thèse consacrée à la technique de résection chirurgicale dans le traitement du cancer de l'estomac en 1906, sous la direction d'Antonin Poncet. À Lyon, il se lie d'amitié pour Alexis Carrel qu'il retrouvera, plus tard, à New York.
+René Leriche épousa Louise Héliot Calenborn, née en 1884 et décédée le 26 septembre 1910 dans le 2e arrondissement de Lyon. Son épouse est issue d’une famille catholique germanique. Elle-même médecin, elle sera sa plus proche collaboratrice. De ce mariage naîtra une fille : Jacqueline Leriche (née en 1917) comédienne, mariée en premières noces le 24 septembre 1934 dans le 7e arrondissement de Lyon avec Pierre Étienne-Martin (1905-1961), professeur agrégé de médecine, dont deux enfants ; puis mariée en secondes noces avec Henry Dauberville (1907-1988), marchand de tableaux, dont deux enfants Béatrice (1948-) et Guy-Patrice Dauberville (1949-). 
 </t>
         </is>
       </c>
@@ -543,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Leriche</t>
+          <t>René_Leriche</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -558,10 +561,166 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Première Guerre mondiale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au début de la guerre, il est affecté dans une ambulance chirurgicale automobile dans les Vosges. Après un court passage à Creil dans un hôpital de triage et de régulation, il est nommé à l'hôpital du Panthéon. Puis, il passe à l'hôpital russe installé dans l'hôtel Carlton de Menton. En avril 1917, souhaitant depuis longtemps retourner au front, René Leriche rejoint Robert Proust et son équipe de l'Auto-chir (ACA no 17). René Leriche fut sollicité par l'histologiste et radiobiologiste lyonnais Claudius Regaud pour entrer dans la formation qu'il préparait pour servir d'École de médecine et de chirurgie de guerre dans l'HOE de Bouleuse, près de Reims. Cette école devint un centre réputé d'instruction et de perfectionnement pour tous les médecins et les chirurgiens qui y passaient au point qu'il fut décidé d'y admettre en formation active les Américains fraîchement arrivés. René Leriche y retrouve plusieurs grands noms de la médecine : le brillant spécialiste de la chirurgie thoracique Jean-Louis Roux-Berger (très en avance sur ce qui se faisait ailleurs), Lemaître qui restera le créateur de la suture primitive des plaies, le neurologue Georges Guillain, le radiologiste lyonnais Thomas Nogier et le pathologiste Pierre Masson. Mais, il a surtout pour adjoint Paul Santy et Convert pour son service des fractures et des lésions articulaires. Un jeune médecin fraîchement arrivé s'empresse de le rencontrer ; il s'agit de Georges Duhamel. À Épernay, se trouve l'Auto-chir no 39 de Paul Lecène avec Albert Policard. C'est avec ce dernier et l'aide de Paul Santy que René Leriche entreprendra dans l'HOE des travaux très poussés de recherche sur l'ostéogenèse ; il s'intéresse en particulier à la réparation des fractures avec des expériences menées sur des lapins, et poursuit déjà de savantes réflexions sur le rôle de la vasomotricité dans le site du traumatisme. Cela exigeait de nombreuses coupes histologiques et autant de clichés radiologiques, voire photographiques, mais l'environnement et l'organisation de ce très gros hôpital de campagne de 3 000 lits le permettaient. Il devient chirurgien-major de 1re classe le 28 décembre 1917. Lors de la guerre de 1914-1918, l’idée de René Leriche est de différencier le linge blanc traditionnel dans lequel sont amenés les blessés, du linge des salles d’opérations chirurgicales aseptiques. Il choisit le bleu et fait peindre les salles chirurgicales en bleu. Tout le linge des salles d’opérations est également de couleur bleue : linge opératoire, casaques, calots, masques. Cette couleur sera adoptée dans le monde entier et, pour la première fois, cette convention permet de limiter au mieux les contaminations infectieuses.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>René_Leriche</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ren%C3%A9_Leriche</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Entre-deux-guerres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Il devient chirurgien des hôpitaux de Lyon en 1919. Un séjour aux États-Unis lui permet de rencontrer notamment Simon Flexner (qui prône la chirurgie « en douceur ») de la Fondation Rockefeller, puis William Halsted à Baltimore mais également de nombreux chirurgiens qui auront une grande influence sur lui. En 1924, il est titulaire d'une chaire à l'université de Strasbourg, répondant à l'appel du doyen Georges Weiss après la mort de Louis Sencert. Il introduit l'importante notion de chirurgie non agressive. En 1925, lors de sa leçon inaugurale à la chaire de clinique chirurgicale de l’université de Strasbourg, il affirme que la chirurgie ne doit plus se limiter à la correction ou à l’ablation des lésions anatomiques mais qu’elle doit s’attaquer au traitement des troubles fonctionnels.
+Il soigne et ampute le maréchal Joffre en fin de vie.
+En 1936, il succède à Charles Nicolle au Collège de France à Paris : il y occupera la chaire de Médecine expérimentale de 1937 à 1950. Cela lui permet de continuer ses recherches en y créant un laboratoire de chirurgie expérimentale et de conceptualiser ses théories sur la physiologie et la pathologie. Dans le sillage de Claude Bernard, René Leriche déclare que « la maladie apparaît surtout comme une perversion fonctionnelle ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>René_Leriche</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ren%C3%A9_Leriche</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Seconde Guerre mondiale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De retour à Lyon après l'armistice du 22 juin 1940, il décline le poste de ministre de la Santé qui lui aurait été proposé par le maréchal Pétain. Il accepte néanmoins la présidence de l'Ordre national des médecins créé en octobre 1940 par le régime de Vichy. Cet organisme renforcera l'emprise de l'État sur l'organisation de la médecine, appuiera le numerus clausus dans les études médicales et appliquera l'interdiction professionnelle des médecins juifs. Le Conseil de l’Ordre des médecins a joué en effet, sous la direction de René Leriche, un rôle important dans l’exclusion des médecins Juifs en participant à leur recensement, à leur dénonciation et surtout au processus de spoliation des cabinets « vacants ». Le professeur René Leriche restera jusqu'en 1943 le président de l'Ordre national des médecins. Pendant la Seconde Guerre mondiale, il fut aussi membre du Conseil national du régime de Vichy. Il dira plusieurs années après la guerre qu'il serait parti en désaccord avec les directives de l'État et justifie son attitude en affirmant, en reprenant ainsi les mêmes arguments des défenseurs du gouvernement de Vichy, que le Conseil de l’Ordre des médecins a servi de bouclier face à l'occupant nazi. Comme beaucoup de personnes engagées dans la collaboration avec Vichy, il ne sera que peu inquiété et il minimisera son engagement. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>René_Leriche</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ren%C3%A9_Leriche</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Après-guerre</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> À la Libération, il est évincé des circuits officiels. Il est cependant élu membre de l'Académie des sciences le 4 juin 1945 et de l'Académie nationale de médecine en 1945. L'Ordre national des médecins est alors réformé.
+Il fut aussi élu membre de l'Académie nationale de chirurgie en 1945 et président de celle-ci de 1952 à 1953.
+René Leriche corrigeait les épreuves de son autobiographie peu avant sa mort. Ce livre fut publié en 1956 sous le titre (choisi par l'éditeur) Souvenirs de ma vie morte.
+René Leriche est inhumé au cimetière de Sainte-Foy-lès-Lyon.
+Le 30 juin 2022, le bâtiment René Leriche de l’ancien hôpital Broussais est débaptisé et renommé bâtiment Ady Steg en l'honneur du chirurgien et jeune résistant.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>René_Leriche</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ren%C3%A9_Leriche</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Thèse de médecine sous la direction d'Antonin Poncet, Des résections de l'estomac pour cancer : technique, résultats, immédiats, résultats éloignés, Lyon, 1906.
 Titres et travaux scientifiques, Lyon, Imprimeries réunies, 1907 (lire en ligne).
@@ -578,81 +737,156 @@
 La chirurgie, discipline de la connaissance, Nice, La Diane Française, 1949.
 Anévrysmes artériels et fistules artério-veineuses, Paris, Masson &amp; Cie, 1949.
 La philosophie de la chirurgie, Paris, Flammarion, Bibliothèque de philosophie scientifique, 1951.
-Souvenirs de ma vie morte, Éditions du Seuil, 1956, 252 p. (ISBN 2-02-002078-5).
-En collaboration
-Rapport présenté par Messieurs Antonin Poncet et René Leriche, Pathogénie des ankyloses spontanées et particulièrement des ankyloses vertébrales, Association française pour l'avancement des sciences, Congrès de Lyon, 2-7 août 1906 (lire en ligne).
+Souvenirs de ma vie morte, Éditions du Seuil, 1956, 252 p. (ISBN 2-02-002078-5).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>René_Leriche</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ren%C3%A9_Leriche</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres et publications</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>En collaboration</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Rapport présenté par Messieurs Antonin Poncet et René Leriche, Pathogénie des ankyloses spontanées et particulièrement des ankyloses vertébrales, Association française pour l'avancement des sciences, Congrès de Lyon, 2-7 août 1906 (lire en ligne).
 (en) avec André Morel, The Syndrome of Thrombotic Obliteration of the Aortic Bifurcation, Annals of Surgery, février 1948 (lire en ligne).</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Ren%C3%A9_Leriche</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ren%C3%A9_Leriche</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>René_Leriche</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ren%C3%A9_Leriche</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Opération de Leriche : dénervation sympathique (ou sympathectomie) par décortication artérielle pour le traitement de l'artérite des membres inférieurs.
-Syndrome de Leriche : oblitération thrombotique de la bifurcation aortique[28].
+Syndrome de Leriche : oblitération thrombotique de la bifurcation aortique.
 Syndrome de Sudeck-Leriche ou syndrome douloureux régional complexe (ou encore algoneurodystrophie).
-Classification de Leriche et Fontaine[29],[30] : degré en quatre stades de l'artérite oblitérante des membres inférieurs[31].</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Ren%C3%A9_Leriche</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ren%C3%A9_Leriche</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+Classification de Leriche et Fontaine, : degré en quatre stades de l'artérite oblitérante des membres inférieurs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>René_Leriche</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ren%C3%A9_Leriche</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Distinctions et reconnaissance</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Décorations françaises
- Grand officier de la Légion d'honneur
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Décorations françaises</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Grand officier de la Légion d'honneur
  Croix de guerre 1914-1918
  Médaille interalliée 1914-1918
  Médaille commémorative de la guerre 1914-1918
  Commandeur de l'ordre de la Santé publique
-Ordre de la Francisque[32]
-Décorations étrangères
- Grand officier de l'ordre National et Mérite (Haïti)
+Ordre de la Francisque</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>René_Leriche</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ren%C3%A9_Leriche</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Distinctions et reconnaissance</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Décorations étrangères</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Grand officier de l'ordre National et Mérite (Haïti)
  Commandeur de l'ordre de Vasa (Suède)
  Commandeur de l'ordre de Léopold (Belgique)
  Commandeur de l'ordre de Santiago (Portugal)
@@ -661,19 +895,87 @@
 Médaille de l'université Charles de Prague
 Médaille de l'université de Mexico
 Médaille de l'université de Lima
-Médaille de l'université de Recife
-Prix et distinctions diverses
-Prix Laborie de l'Académie nationale de médecine (1916)
+Médaille de l'université de Recife</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>René_Leriche</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ren%C3%A9_Leriche</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Distinctions et reconnaissance</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Prix et distinctions diverses</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Prix Laborie de l'Académie nationale de médecine (1916)
 Médaille internationale de chirurgie (1931)
 Médaille Miahle de la Société de chirurgie d'Oslo (1933)
 Médaille de l'Université libre de Bruxelles (1936)
-Lister Medal (en) (1939)[33]
+Lister Medal (en) (1939)
 Président des Amis de l'université de Strasbourg
 Membre d'honneur du Comité des écrivains d'Alsace et de Lorraine
 Citoyen d'honneur de la ville d'Aix-les-Bains
-Conseiller honoraire étranger de la Sociedad Argentina (1954)
-Sociétés savantes
-Membre de l'Académie des sciences (4 juin 1945)
+Conseiller honoraire étranger de la Sociedad Argentina (1954)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>René_Leriche</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ren%C3%A9_Leriche</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Distinctions et reconnaissance</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Sociétés savantes</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Membre de l'Académie des sciences (4 juin 1945)
 Membre de l'Académie nationale de médecine (1945)
 Membre (1945) et président de l'Académie nationale de chirurgie (de 1952 à 1953)
 Membre (1945) et président la Société de biologie (de 1951 à 1955)
@@ -692,7 +994,7 @@
 Membre honoraire de l'Association of Surgeons of Great Britain and Ireland (en) (1949)
 Membre honoraire de l'American College of Surgeons (en) (1949)
 Membre honoraire de l'American Surgical Association (en) (1949)
-Membre d'honneur de diverses académies de médecine[34] (1949)
+Membre d'honneur de diverses académies de médecine (1949)
 Membre d'honneur de la Société française de neurochirurgie (1948)
 Membre d'honneur de la Société italienne de chirurgie (1948)
 Membre d'honneur de la Société des neurochirurgiens en langue française (1949)
@@ -728,9 +1030,43 @@
 Membre correspondant de la Société des chirurgiens de Vienne (1949)
 Membre correspondant de la Société vénézuélienne de chirurgie (1952)
 Membre correspondant de la Norwegian Medical Society (en) (1952)
-Membre correspondant de la Société de chirurgie de l'URSS (1955)
-Titres universitaires et hospitaliers
-Interne des hôpitaux de Lyon (1902)
+Membre correspondant de la Société de chirurgie de l'URSS (1955)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>René_Leriche</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ren%C3%A9_Leriche</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Distinctions et reconnaissance</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Titres universitaires et hospitaliers</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Interne des hôpitaux de Lyon (1902)
 Prosecteur à la faculté de médecine de Lyon (1905)
 Docteur en médecine de la faculté de médecine de Lyon (1906)
 Chef de clinique chirurgicale (1906)
@@ -740,78 +1076,150 @@
 Professeur de clinique chirurgicale à la faculté de médecine de Strasbourg (1924)
 Professeur de pathologie chirurgicale à la faculté de médecine de Lyon (1932)
 Chargé de la suppléance du Pr Charles Nicolle au Collège de France (1936)
-Professeur au Collège de France (1937)
-Titres honorifiques
-Docteur ès sciences de l'université Harvard (1929)
+Professeur au Collège de France (1937)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>René_Leriche</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ren%C3%A9_Leriche</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Distinctions et reconnaissance</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Titres honorifiques</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Docteur ès sciences de l'université Harvard (1929)
 Professeur de chirurgie pro tempore à Peter Bent Brigham Hospital (en), université Harvard (1929)
 Professeur de chirurgie pro tempore à Lakeside Hospital, Western University, Cleveland (1929)
 Docteur en droit de l'université de Glasgow (1935)
-Docteur honoris causa de nombreuses universités étrangères[35]
-Congrès
-Président du Congrès français de chirurgie (1933)
+Docteur honoris causa de nombreuses universités étrangères</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>René_Leriche</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ren%C3%A9_Leriche</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Distinctions et reconnaissance</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Congrès</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Président du Congrès français de chirurgie (1933)
 Président du Congrès de la Société Internationale de Chirurgie (SIC) (1951)
 Président de la Société européenne de chirurgie vasculaire (1951)
 Membre d'honneur du Collège allemand de chirurgie (1951)</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Ren%C3%A9_Leriche</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ren%C3%A9_Leriche</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>René_Leriche</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ren%C3%A9_Leriche</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Timbre postal, conçu par André Spitz, gravé par René Cottet, émis par la France le 27 janvier 1958[36].
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Timbre postal, conçu par André Spitz, gravé par René Cottet, émis par la France le 27 janvier 1958.
 Une voie et un pavillon de l'hôpital civil de Strasbourg portent son nom.
 De nombreuses rues en France portent son nom.</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Ren%C3%A9_Leriche</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ren%C3%A9_Leriche</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>René_Leriche</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ren%C3%A9_Leriche</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Sources et bibliographie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>Robert Courrier, Notice sur la vie et les travaux de René Leriche, 1957-1962, t. 4, Paris, Institut de France, Académie des sciences, Gauthier-Villars, coll. « Notices et discours », 1937-1974 (lire en ligne), p. 106-219.
 (en) Arthur Keith, Visit of Professor René Leriche to the Buckston Browne Farm, The Annals of The Royal College of Surgeons of England, 1951 (lire en ligne).
